--- a/setups.xlsx
+++ b/setups.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d97dfd61da619a5/POLIMI FORE/SEMESTRE II/ADVANCED_MEASSUREMENTS/PROGETTO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d97dfd61da619a5/POLIMI FORE/SEMESTRE II/ADVANCED_MEASSUREMENTS/PROGETTO/CBFD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{7D442E61-4EF6-48ED-89F0-7C5384A50D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF805F1-000B-40FD-AA01-7B65C9D0EFDD}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{7D442E61-4EF6-48ED-89F0-7C5384A50D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7662AE-656D-4402-8E68-C24243B3DAB8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD20EFE5-D9DD-4AD1-942B-D6E5B3A7DB5F}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{CD20EFE5-D9DD-4AD1-942B-D6E5B3A7DB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>heigth</t>
   </si>
@@ -84,6 +85,36 @@
   </si>
   <si>
     <t>vertical distance to camara without lens</t>
+  </si>
+  <si>
+    <t>DUOMO</t>
+  </si>
+  <si>
+    <t>with respect to the floor</t>
+  </si>
+  <si>
+    <t>wrt. To the work surface</t>
+  </si>
+  <si>
+    <t>wrt. The worksurface</t>
+  </si>
+  <si>
+    <t>Camera Sensor Heigth</t>
+  </si>
+  <si>
+    <t>distance between hexagon faces</t>
+  </si>
+  <si>
+    <t>Doom Ligth</t>
+  </si>
+  <si>
+    <t>distance between ligths</t>
+  </si>
+  <si>
+    <t>Camera horizontal distance</t>
+  </si>
+  <si>
+    <t>wrt the montaje</t>
   </si>
 </sst>
 </file>
@@ -136,6 +167,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC7620-E845-4387-A638-145FA89B461A}">
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -599,4 +634,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73C31EC-A213-46B7-AC15-2595170C2B43}">
+  <dimension ref="B2:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>47.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>88.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>